--- a/commodities/NOMADS_Primers.xlsx
+++ b/commodities/NOMADS_Primers.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\git\resources\commodities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98132649-02AC-4A56-8588-5055ED2403DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{217C502B-AA94-43F8-8884-79A76C05A9F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="46284" windowHeight="23364" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="46284" windowHeight="23244" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pf SWGA" sheetId="4" r:id="rId1"/>
@@ -431,7 +431,7 @@
     <t>mdr1-p86-p184_v26_R</t>
   </si>
   <si>
-    <t>w</t>
+    <t>CAACACGCATATCCAATAGACCA</t>
   </si>
 </sst>
 </file>
@@ -2071,7 +2071,7 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2114,7 +2114,7 @@
       </c>
       <c r="E2" s="3">
         <f>LEN(MVP[[#This Row],[DNA Sequence]])</f>
-        <v>1</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.35">
